--- a/ExcelFile/testdata1.xlsx
+++ b/ExcelFile/testdata1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aashuu\git\zerodha\KiteZerodha\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aashuu\eclipse-workspace\RestAssurd\ExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92549AB-C9DE-4D37-A6EA-2557AA9BEB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C34E547-C587-46D7-8368-CF1AE1AA2E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C055F2A9-A824-44D7-9292-6AE066BB92A4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>userName</t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t>admin123</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>male</t>
   </si>
 </sst>
 </file>
@@ -129,11 +138,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E217D2BC-344C-4AAF-ADCB-F470B8A10CD4}" name="Table1" displayName="Table1" ref="A1:B7" totalsRowShown="0">
-  <autoFilter ref="A1:B7" xr:uid="{E217D2BC-344C-4AAF-ADCB-F470B8A10CD4}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E217D2BC-344C-4AAF-ADCB-F470B8A10CD4}" name="Table1" displayName="Table1" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{E217D2BC-344C-4AAF-ADCB-F470B8A10CD4}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{2CF3A405-585C-4CE1-84A8-B6F821B98BB2}" name="userName"/>
     <tableColumn id="2" xr3:uid="{85341760-0A87-4C1B-9996-6918756E0EAF}" name="password"/>
+    <tableColumn id="3" xr3:uid="{9179FADA-AA82-4C07-B6D5-869BFF8CF3F0}" name="sex"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -436,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497D9AA4-161F-48B0-9CEB-0B4250119C0A}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -447,60 +457,81 @@
     <col min="1" max="1" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
